--- a/Project Outputs for WordStorm Debugger/BOM/Bill of Materials-WordStorm Debugger.xlsx
+++ b/Project Outputs for WordStorm Debugger/BOM/Bill of Materials-WordStorm Debugger.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\WordStorm Debugger\Project Outputs for WordStorm Debugger\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99676902-00B7-4D45-9969-7EB42BDA6186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{971DE33C-3AEA-4063-A7C3-0480FD84EF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3615" yWindow="2775" windowWidth="21600" windowHeight="13065" xr2:uid="{26F20204-A675-4B5E-AC97-377640CB10B9}"/>
+    <workbookView xWindow="3615" yWindow="2775" windowWidth="21600" windowHeight="13065" xr2:uid="{472D3CEB-6317-4FE1-A326-DA7C1DDE2508}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-WordStorm Deb" sheetId="1" r:id="rId1"/>
@@ -491,7 +491,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A978A465-5ECB-4086-9E54-C3DC73132DDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B954560-3DFF-401E-872B-3EEFB66D1FB9}">
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Project Outputs for WordStorm Debugger/BOM/Bill of Materials-WordStorm Debugger.xlsx
+++ b/Project Outputs for WordStorm Debugger/BOM/Bill of Materials-WordStorm Debugger.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\WordStorm Debugger\Project Outputs for WordStorm Debugger\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{971DE33C-3AEA-4063-A7C3-0480FD84EF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B427381E-554B-401B-9F34-7142F603B40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3615" yWindow="2775" windowWidth="21600" windowHeight="13065" xr2:uid="{472D3CEB-6317-4FE1-A326-DA7C1DDE2508}"/>
+    <workbookView xWindow="3615" yWindow="2775" windowWidth="21600" windowHeight="13065" xr2:uid="{137FAD06-3146-42F2-9481-83C7EDEC46A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-WordStorm Deb" sheetId="1" r:id="rId1"/>
@@ -39,10 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
-  <si>
-    <t>Line #</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -54,30 +51,6 @@
   </si>
   <si>
     <t>Quantity</t>
-  </si>
-  <si>
-    <t>Manufacturer 1</t>
-  </si>
-  <si>
-    <t>Manufacturer Part Number 1</t>
-  </si>
-  <si>
-    <t>Manufacturer Lifecycle 1</t>
-  </si>
-  <si>
-    <t>Supplier 1</t>
-  </si>
-  <si>
-    <t>Supplier Part Number 1</t>
-  </si>
-  <si>
-    <t>Supplier Unit Price 1</t>
-  </si>
-  <si>
-    <t>Supplier Subtotal 1</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>SFH11-PBPC-D10-ST-BK</t>
@@ -491,28 +464,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B954560-3DFF-401E-872B-3EEFB66D1FB9}">
-  <dimension ref="A1:L3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3BE77C0-3C2E-4F30-AFE1-7DC3F90EB54C}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" customWidth="1"/>
-    <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1"/>
-    <col min="10" max="10" width="23.140625" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" customWidth="1"/>
-    <col min="12" max="12" width="20" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="4" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -525,78 +488,34 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
